--- a/mutantinfo/SimpleLinear传统变异体信息.xlsx
+++ b/mutantinfo/SimpleLinear传统变异体信息.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>等价变异体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AOIS_21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AOIS_22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +214,6 @@
   </si>
   <si>
     <t>AOIS_26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOIS_27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -613,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -666,9 +658,6 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -677,9 +666,6 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -731,7 +717,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -739,7 +725,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -747,7 +733,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -755,7 +741,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -763,7 +749,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -771,7 +757,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -779,7 +765,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -787,7 +773,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -835,17 +821,17 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,16 +846,16 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,27 +865,27 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
